--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori2/42/word_level_predictions_42.xlsx
@@ -1074,208 +1074,208 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones . Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones . Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones . Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Restricted</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="n">
         <v>2</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones . Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Zones</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" t="n">
         <v>3</v>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G75" s="2" t="b">
@@ -4333,11 +4333,11 @@
         </is>
       </c>
       <c r="I75" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K75" s="2" t="b">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4385,11 +4385,11 @@
         </is>
       </c>
       <c r="I76" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K76" s="2" t="b">
@@ -4437,11 +4437,11 @@
         </is>
       </c>
       <c r="I77" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K77" s="2" t="b">
@@ -4489,11 +4489,11 @@
         </is>
       </c>
       <c r="I78" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K78" s="2" t="b">
@@ -6534,364 +6534,364 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
+      <c r="A118" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C118" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D118" t="n">
+      <c r="D118" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="E118" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G118" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I118" t="b">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K118" t="b">
-        <v>1</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
+      <c r="A119" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C119" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D119" t="n">
+      <c r="D119" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G119" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I119" t="b">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K119" t="b">
-        <v>1</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G119" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
+      <c r="A120" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C120" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D120" t="n">
+      <c r="D120" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K120" t="b">
-        <v>1</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C121" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D121" t="n">
+      <c r="D121" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
+      <c r="A122" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C122" s="2" t="inlineStr">
         <is>
           <t>arrange</t>
         </is>
       </c>
-      <c r="D122" t="n">
+      <c r="D122" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K122" t="b">
-        <v>1</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D123" t="n">
+      <c r="D123" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" s="2" t="inlineStr">
         <is>
           <t>repairs</t>
         </is>
       </c>
-      <c r="D124" t="n">
+      <c r="D124" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="E124" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="F124" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12341,11 +12341,11 @@
         </is>
       </c>
       <c r="I229" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K229" s="2" t="b">
@@ -12393,11 +12393,11 @@
         </is>
       </c>
       <c r="I230" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K230" s="2" t="b">
@@ -12445,11 +12445,11 @@
         </is>
       </c>
       <c r="I231" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K231" s="2" t="b">
@@ -12497,11 +12497,11 @@
         </is>
       </c>
       <c r="I232" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K232" s="2" t="b">
@@ -12549,11 +12549,11 @@
         </is>
       </c>
       <c r="I233" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K233" s="2" t="b">
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12601,11 +12601,11 @@
         </is>
       </c>
       <c r="I234" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12653,11 +12653,11 @@
         </is>
       </c>
       <c r="I235" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K235" s="2" t="b">
@@ -12705,11 +12705,11 @@
         </is>
       </c>
       <c r="I236" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K236" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="I241" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K241" s="2" t="b">
@@ -14045,7 +14045,7 @@
       </c>
       <c r="F262" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G262" s="2" t="b">
@@ -14069,7 +14069,7 @@
       </c>
       <c r="L262" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F263" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G263" s="2" t="b">
@@ -14121,7 +14121,7 @@
       </c>
       <c r="L263" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14149,7 +14149,7 @@
       </c>
       <c r="F264" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G264" s="2" t="b">
@@ -14173,7 +14173,7 @@
       </c>
       <c r="L264" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14201,7 +14201,7 @@
       </c>
       <c r="F265" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G265" s="2" t="b">
@@ -14225,7 +14225,7 @@
       </c>
       <c r="L265" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17090,418 +17090,418 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="2" t="n">
+      <c r="A321" t="n">
         <v>26</v>
       </c>
-      <c r="B321" s="2" t="inlineStr">
+      <c r="B321" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C321" s="2" t="inlineStr">
+      <c r="C321" t="inlineStr">
         <is>
           <t>Go</t>
         </is>
       </c>
-      <c r="D321" s="2" t="n">
+      <c r="D321" t="n">
         <v>4</v>
       </c>
-      <c r="E321" s="2" t="inlineStr">
+      <c r="E321" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F321" s="2" t="inlineStr">
+      <c r="F321" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G321" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H321" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I321" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J321" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K321" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L321" s="2" t="inlineStr">
+      <c r="G321" t="b">
+        <v>1</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I321" t="b">
+        <v>1</v>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K321" t="b">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="2" t="n">
+      <c r="A322" t="n">
         <v>26</v>
       </c>
-      <c r="B322" s="2" t="inlineStr">
+      <c r="B322" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C322" s="2" t="inlineStr">
+      <c r="C322" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D322" s="2" t="n">
+      <c r="D322" t="n">
         <v>5</v>
       </c>
-      <c r="E322" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F322" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G322" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H322" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I322" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J322" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K322" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L322" s="2" t="inlineStr">
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G322" t="b">
+        <v>1</v>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I322" t="b">
+        <v>1</v>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K322" t="b">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="2" t="n">
+      <c r="A323" t="n">
         <v>26</v>
       </c>
-      <c r="B323" s="2" t="inlineStr">
+      <c r="B323" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C323" s="2" t="inlineStr">
+      <c r="C323" t="inlineStr">
         <is>
           <t>Profile</t>
         </is>
       </c>
-      <c r="D323" s="2" t="n">
+      <c r="D323" t="n">
         <v>6</v>
       </c>
-      <c r="E323" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F323" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G323" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H323" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I323" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J323" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K323" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L323" s="2" t="inlineStr">
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G323" t="b">
+        <v>1</v>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I323" t="b">
+        <v>1</v>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K323" t="b">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="2" t="n">
+      <c r="A324" t="n">
         <v>26</v>
       </c>
-      <c r="B324" s="2" t="inlineStr">
+      <c r="B324" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C324" s="2" t="inlineStr">
+      <c r="C324" t="inlineStr">
         <is>
           <t>&gt;</t>
         </is>
       </c>
-      <c r="D324" s="2" t="n">
+      <c r="D324" t="n">
         <v>7</v>
       </c>
-      <c r="E324" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F324" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G324" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H324" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I324" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J324" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K324" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L324" s="2" t="inlineStr">
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G324" t="b">
+        <v>1</v>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I324" t="b">
+        <v>1</v>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K324" t="b">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="2" t="n">
+      <c r="A325" t="n">
         <v>26</v>
       </c>
-      <c r="B325" s="2" t="inlineStr">
+      <c r="B325" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C325" s="2" t="inlineStr">
+      <c r="C325" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D325" s="2" t="n">
+      <c r="D325" t="n">
         <v>8</v>
       </c>
-      <c r="E325" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F325" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G325" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H325" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I325" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J325" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K325" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L325" s="2" t="inlineStr">
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G325" t="b">
+        <v>1</v>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I325" t="b">
+        <v>1</v>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K325" t="b">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="2" t="n">
+      <c r="A326" t="n">
         <v>26</v>
       </c>
-      <c r="B326" s="2" t="inlineStr">
+      <c r="B326" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C326" s="2" t="inlineStr">
+      <c r="C326" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D326" s="2" t="n">
+      <c r="D326" t="n">
         <v>9</v>
       </c>
-      <c r="E326" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F326" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G326" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H326" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I326" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J326" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K326" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L326" s="2" t="inlineStr">
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G326" t="b">
+        <v>1</v>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I326" t="b">
+        <v>1</v>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K326" t="b">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="2" t="n">
+      <c r="A327" t="n">
         <v>26</v>
       </c>
-      <c r="B327" s="2" t="inlineStr">
+      <c r="B327" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C327" s="2" t="inlineStr">
+      <c r="C327" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D327" s="2" t="n">
+      <c r="D327" t="n">
         <v>10</v>
       </c>
-      <c r="E327" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F327" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G327" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H327" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I327" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J327" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K327" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L327" s="2" t="inlineStr">
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G327" t="b">
+        <v>1</v>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I327" t="b">
+        <v>1</v>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K327" t="b">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="2" t="n">
+      <c r="A328" t="n">
         <v>26</v>
       </c>
-      <c r="B328" s="2" t="inlineStr">
+      <c r="B328" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C328" s="2" t="inlineStr">
+      <c r="C328" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D328" s="2" t="n">
+      <c r="D328" t="n">
         <v>11</v>
       </c>
-      <c r="E328" s="2" t="inlineStr">
+      <c r="E328" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F328" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G328" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H328" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I328" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J328" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K328" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L328" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G328" t="b">
+        <v>1</v>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I328" t="b">
+        <v>1</v>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K328" t="b">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori2/42/word_level_predictions_42.xlsx
@@ -1074,208 +1074,208 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="A13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones . Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones . Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="D14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft in Restricted Zones . Check map to find Recommended Zones .</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones . Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Restricted</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Aircraft in Restricted Zones . Check map to find Recommended Zones .</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>Zones</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G75" s="2" t="b">
@@ -4333,11 +4333,11 @@
         </is>
       </c>
       <c r="I75" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K75" s="2" t="b">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4385,11 +4385,11 @@
         </is>
       </c>
       <c r="I76" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K76" s="2" t="b">
@@ -4437,11 +4437,11 @@
         </is>
       </c>
       <c r="I77" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K77" s="2" t="b">
@@ -4489,11 +4489,11 @@
         </is>
       </c>
       <c r="I78" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K78" s="2" t="b">
@@ -6534,364 +6534,364 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" t="n">
         <v>9</v>
       </c>
-      <c r="B118" s="2" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C118" s="2" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D118" s="2" t="n">
+      <c r="D118" t="n">
         <v>7</v>
       </c>
-      <c r="E118" s="2" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F118" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G118" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L118" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" t="n">
         <v>9</v>
       </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C119" s="2" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D119" s="2" t="n">
+      <c r="D119" t="n">
         <v>8</v>
       </c>
-      <c r="E119" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F119" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G119" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L119" s="2" t="inlineStr">
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" t="n">
         <v>9</v>
       </c>
-      <c r="B120" s="2" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C120" s="2" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D120" s="2" t="n">
+      <c r="D120" t="n">
         <v>9</v>
       </c>
-      <c r="E120" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F120" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L120" s="2" t="inlineStr">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" t="n">
         <v>9</v>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C121" s="2" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D121" s="2" t="n">
+      <c r="D121" t="n">
         <v>10</v>
       </c>
-      <c r="E121" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" t="n">
         <v>9</v>
       </c>
-      <c r="B122" s="2" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C122" s="2" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>arrange</t>
         </is>
       </c>
-      <c r="D122" s="2" t="n">
+      <c r="D122" t="n">
         <v>11</v>
       </c>
-      <c r="E122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L122" s="2" t="inlineStr">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" t="n">
         <v>9</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
+      <c r="D123" t="n">
         <v>12</v>
       </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" t="n">
         <v>9</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>repairs</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
+      <c r="D124" t="n">
         <v>13</v>
       </c>
-      <c r="E124" s="2" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F124" s="2" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12341,11 +12341,11 @@
         </is>
       </c>
       <c r="I229" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K229" s="2" t="b">
@@ -12393,11 +12393,11 @@
         </is>
       </c>
       <c r="I230" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K230" s="2" t="b">
@@ -12445,11 +12445,11 @@
         </is>
       </c>
       <c r="I231" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K231" s="2" t="b">
@@ -12497,11 +12497,11 @@
         </is>
       </c>
       <c r="I232" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J232" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K232" s="2" t="b">
@@ -12549,11 +12549,11 @@
         </is>
       </c>
       <c r="I233" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K233" s="2" t="b">
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12601,11 +12601,11 @@
         </is>
       </c>
       <c r="I234" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12653,11 +12653,11 @@
         </is>
       </c>
       <c r="I235" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K235" s="2" t="b">
@@ -12705,11 +12705,11 @@
         </is>
       </c>
       <c r="I236" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K236" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="I241" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K241" s="2" t="b">
@@ -14045,7 +14045,7 @@
       </c>
       <c r="F262" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G262" s="2" t="b">
@@ -14069,7 +14069,7 @@
       </c>
       <c r="L262" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F263" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G263" s="2" t="b">
@@ -14121,7 +14121,7 @@
       </c>
       <c r="L263" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14149,7 +14149,7 @@
       </c>
       <c r="F264" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G264" s="2" t="b">
@@ -14173,7 +14173,7 @@
       </c>
       <c r="L264" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14201,7 +14201,7 @@
       </c>
       <c r="F265" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G265" s="2" t="b">
@@ -14225,7 +14225,7 @@
       </c>
       <c r="L265" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17090,418 +17090,418 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="n">
+      <c r="A321" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B321" t="inlineStr">
+      <c r="B321" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C321" t="inlineStr">
+      <c r="C321" s="2" t="inlineStr">
         <is>
           <t>Go</t>
         </is>
       </c>
-      <c r="D321" t="n">
+      <c r="D321" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E321" t="inlineStr">
+      <c r="E321" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F321" t="inlineStr">
+      <c r="F321" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G321" t="b">
-        <v>1</v>
-      </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I321" t="b">
-        <v>1</v>
-      </c>
-      <c r="J321" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K321" t="b">
-        <v>1</v>
-      </c>
-      <c r="L321" t="inlineStr">
+      <c r="G321" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H321" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I321" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J321" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K321" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L321" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="n">
+      <c r="A322" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B322" t="inlineStr">
+      <c r="B322" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C322" t="inlineStr">
+      <c r="C322" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D322" t="n">
+      <c r="D322" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F322" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G322" t="b">
-        <v>1</v>
-      </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I322" t="b">
-        <v>1</v>
-      </c>
-      <c r="J322" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K322" t="b">
-        <v>1</v>
-      </c>
-      <c r="L322" t="inlineStr">
+      <c r="E322" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F322" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G322" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H322" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I322" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J322" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K322" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L322" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="n">
+      <c r="A323" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B323" t="inlineStr">
+      <c r="B323" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C323" t="inlineStr">
+      <c r="C323" s="2" t="inlineStr">
         <is>
           <t>Profile</t>
         </is>
       </c>
-      <c r="D323" t="n">
+      <c r="D323" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F323" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G323" t="b">
-        <v>1</v>
-      </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I323" t="b">
-        <v>1</v>
-      </c>
-      <c r="J323" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K323" t="b">
-        <v>1</v>
-      </c>
-      <c r="L323" t="inlineStr">
+      <c r="E323" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F323" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G323" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H323" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I323" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J323" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K323" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L323" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="n">
+      <c r="A324" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B324" t="inlineStr">
+      <c r="B324" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr">
+      <c r="C324" s="2" t="inlineStr">
         <is>
           <t>&gt;</t>
         </is>
       </c>
-      <c r="D324" t="n">
+      <c r="D324" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E324" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F324" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G324" t="b">
-        <v>1</v>
-      </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I324" t="b">
-        <v>1</v>
-      </c>
-      <c r="J324" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K324" t="b">
-        <v>1</v>
-      </c>
-      <c r="L324" t="inlineStr">
+      <c r="E324" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F324" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G324" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H324" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I324" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J324" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K324" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L324" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="n">
+      <c r="A325" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B325" t="inlineStr">
+      <c r="B325" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C325" t="inlineStr">
+      <c r="C325" s="2" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D325" t="n">
+      <c r="D325" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G325" t="b">
-        <v>1</v>
-      </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I325" t="b">
-        <v>1</v>
-      </c>
-      <c r="J325" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K325" t="b">
-        <v>1</v>
-      </c>
-      <c r="L325" t="inlineStr">
+      <c r="E325" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F325" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G325" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H325" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I325" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J325" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K325" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L325" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="n">
+      <c r="A326" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B326" t="inlineStr">
+      <c r="B326" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C326" t="inlineStr">
+      <c r="C326" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D326" t="n">
+      <c r="D326" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F326" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G326" t="b">
-        <v>1</v>
-      </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I326" t="b">
-        <v>1</v>
-      </c>
-      <c r="J326" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K326" t="b">
-        <v>1</v>
-      </c>
-      <c r="L326" t="inlineStr">
+      <c r="E326" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F326" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G326" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H326" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I326" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J326" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K326" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L326" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="n">
+      <c r="A327" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B327" t="inlineStr">
+      <c r="B327" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C327" t="inlineStr">
+      <c r="C327" s="2" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D327" t="n">
+      <c r="D327" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F327" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G327" t="b">
-        <v>1</v>
-      </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I327" t="b">
-        <v>1</v>
-      </c>
-      <c r="J327" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K327" t="b">
-        <v>1</v>
-      </c>
-      <c r="L327" t="inlineStr">
+      <c r="E327" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F327" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G327" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H327" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I327" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J327" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K327" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L327" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="n">
+      <c r="A328" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B328" t="inlineStr">
+      <c r="B328" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C328" t="inlineStr">
+      <c r="C328" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D328" t="n">
+      <c r="D328" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E328" t="inlineStr">
+      <c r="E328" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F328" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G328" t="b">
-        <v>1</v>
-      </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I328" t="b">
-        <v>1</v>
-      </c>
-      <c r="J328" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K328" t="b">
-        <v>1</v>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F328" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G328" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H328" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I328" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J328" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K328" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L328" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
